--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>testcase</t>
   </si>
@@ -28,7 +28,7 @@
     <t>resultcount</t>
   </si>
   <si>
-    <t>amazonSearchTest1</t>
+    <t>amazonSearchTest</t>
   </si>
   <si>
     <t>chrome</t>
@@ -37,16 +37,10 @@
     <t>Laptops</t>
   </si>
   <si>
-    <t>amazonSearchTest2</t>
-  </si>
-  <si>
     <t>firefox</t>
   </si>
   <si>
     <t>Smartphones</t>
-  </si>
-  <si>
-    <t>amazonSearchTest3</t>
   </si>
   <si>
     <t>safari</t>
@@ -321,6 +315,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -358,16 +355,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>10.0</v>
@@ -375,16 +372,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>10.0</v>
